--- a/Instance/parameters_energy_model.xlsx
+++ b/Instance/parameters_energy_model.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Machine parameters</t>
   </si>
@@ -56,58 +56,61 @@
     <t>Power of water circulation unit[w]</t>
   </si>
   <si>
+    <t>time required for spreading a layer of powder</t>
+  </si>
+  <si>
+    <t>Power of laser-scanning border[w]</t>
+  </si>
+  <si>
     <t>Hatching distance for the part[mm]</t>
   </si>
   <si>
-    <t>Power of laser-scanning border[w]</t>
+    <t>Power of laser-filling contour[w]</t>
   </si>
   <si>
     <t>Hatching distance for the supprot[mm]</t>
   </si>
   <si>
-    <t>Power of laser-filling contour[w]</t>
+    <t>Power of laser-volume hatching[w]</t>
   </si>
   <si>
     <t>Laser scanning speed for scanning border[mm/s]</t>
   </si>
   <si>
-    <t>Power of laser-volume hatching[w]</t>
+    <t>Power of laser-supports building[w]</t>
   </si>
   <si>
     <t>Laser scanning speed for filling contour[mm/s]</t>
   </si>
   <si>
-    <t>Power of laser-supports building[w]</t>
+    <t>Power of recoater motor[w]</t>
   </si>
   <si>
     <t>Laser scanning speed for volume hatching[mm/s]</t>
   </si>
   <si>
-    <t>Power of recoater motor[w]</t>
+    <t>Power of electric valves[w]</t>
   </si>
   <si>
     <t>Laser scanning speed for support building[mm/s]</t>
   </si>
   <si>
-    <t>Power of electric valves[w]</t>
+    <t>Power of power of gas circulation pump motor[w]</t>
   </si>
   <si>
     <t>Layer thickness[mm]</t>
   </si>
   <si>
-    <t>Power of gas circulation pump motor[w]</t>
+    <t>Length of platform[mm]</t>
   </si>
   <si>
     <t>Heating time[s]</t>
   </si>
   <si>
-    <t>Length of platform[mm]</t>
+    <t>Width of platform[mm]</t>
   </si>
   <si>
     <t>Cooling time[s]</t>
-  </si>
-  <si>
-    <t>Width of platform[mm]</t>
   </si>
   <si>
     <t>Height of platform[mm]</t>
@@ -184,13 +187,20 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -717,137 +727,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,6 +867,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -866,13 +879,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1203,7 +1222,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1231,26 +1250,26 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>569.7</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>10</v>
       </c>
       <c r="F3" s="1"/>
@@ -1258,17 +1277,17 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>1122.3</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>10</v>
       </c>
       <c r="F4" s="1"/>
@@ -1276,17 +1295,17 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>1739.4</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
       <c r="F5" s="1"/>
@@ -1294,71 +1313,71 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>713.3</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3">
-        <v>0.13</v>
+      <c r="E6" s="8">
+        <v>11</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>1770.92</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3">
-        <v>0.18</v>
+      <c r="E7" s="4">
+        <v>0.13</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>1770.92</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3">
-        <v>730</v>
+      <c r="E8" s="4">
+        <v>0.18</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>2022.92</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>730</v>
       </c>
       <c r="F9" s="1"/>
@@ -1366,114 +1385,118 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>2022.92</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3">
-        <v>1650</v>
+      <c r="E10" s="4">
+        <v>730</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>52.1</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="3">
-        <v>1000</v>
+      <c r="E11" s="4">
+        <v>1650</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>32.1</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.03</v>
+      <c r="E12" s="4">
+        <v>1000</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>69.1</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="3">
-        <v>2115</v>
+      <c r="E13" s="4">
+        <v>0.03</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>268</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="3">
-        <v>5380</v>
+      <c r="E14" s="4">
+        <v>2115</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>268</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5380</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4">
         <v>315</v>
       </c>
       <c r="C16" s="1"/>
@@ -1484,333 +1507,333 @@
       <c r="H16" s="1"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
+      <c r="A19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="G20" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="H20" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="A21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="A22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
         <v>0.4826</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>0.4826</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>0.4826</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>0.4826</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="4">
         <v>0.4826</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="A24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4">
         <v>0.168</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>0.353</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>0.353</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>0.353</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>0.353</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="4">
         <v>0.353</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="4">
         <v>0.216</v>
       </c>
-      <c r="I24" s="10"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10"/>
+      <c r="A25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="10"/>
+      <c r="A26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="A27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
         <v>0</v>
       </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="A28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
         <v>0</v>
       </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="A29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
         <v>0</v>
       </c>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="A30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
         <v>0</v>
       </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="A31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
         <v>0</v>
       </c>
       <c r="I31" s="1"/>
@@ -1818,7 +1841,7 @@
     <row r="32" spans="1:9">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="9"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1829,7 +1852,7 @@
     <row r="33" spans="1:9">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="9"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>

--- a/Instance/parameters_energy_model.xlsx
+++ b/Instance/parameters_energy_model.xlsx
@@ -56,7 +56,7 @@
     <t>Power of water circulation unit[w]</t>
   </si>
   <si>
-    <t>time required for spreading a layer of powder</t>
+    <t>Time of spreading a layer of powder</t>
   </si>
   <si>
     <t>Power of laser-scanning border[w]</t>
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
